--- a/data/trans_orig/DIF_MES-Clase-trans_orig.xlsx
+++ b/data/trans_orig/DIF_MES-Clase-trans_orig.xlsx
@@ -16330,12 +16330,12 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>1024</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
@@ -16345,12 +16345,12 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>20,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
@@ -16478,12 +16478,12 @@
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>1023</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
@@ -16493,12 +16493,12 @@
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -16930,12 +16930,12 @@
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>1023</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
@@ -16945,12 +16945,12 @@
       </c>
       <c r="O44" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">

--- a/data/trans_orig/DIF_MES-Clase-trans_orig.xlsx
+++ b/data/trans_orig/DIF_MES-Clase-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Dificultad de llegar a fin de mes en País Vasco</t>
+          <t>Dificultad de llegar a fin de mes en País Vasco (tasa de respuesta: 93,44%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6353,7 +6353,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Dificultad de llegar a fin de mes en Andalucia</t>
+          <t>Dificultad de llegar a fin de mes en Andalucia (tasa de respuesta: 99,06%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -12160,7 +12160,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Dificultad de llegar a fin de mes en C.Valenciana</t>
+          <t>Dificultad de llegar a fin de mes en C.Valenciana (tasa de respuesta: 82,06%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -17967,7 +17967,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Dificultad de llegar a fin de mes en Barcelona</t>
+          <t>Dificultad de llegar a fin de mes en Barcelona (tasa de respuesta: 98,21%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
